--- a/ValueSet-FoodAllergyZZVS.xlsx
+++ b/ValueSet-FoodAllergyZZVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-11T23:16:15+00:00</t>
+    <t>2022-06-11T23:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyZZVS.xlsx
+++ b/ValueSet-FoodAllergyZZVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-11T23:25:31+00:00</t>
+    <t>2022-06-11T23:32:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
